--- a/data/trans_orig/P78DS4_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P78DS4_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F2EC439-EAFB-446D-924C-3AED3C77E478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C520BD3-E474-4C16-92B5-AAD208E39A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{463655D4-2354-4FFA-ADF0-403B25E718E6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{555E17BD-8281-4026-B8AC-4378ED8EF481}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="66">
   <si>
     <t>Población según si en los últimos 12 meses ha tenido algún retraso en el pago de recibos como la hipoteca, el alquiler, o suministros como la luz, el agua, impuestos / respuesta 4 en 2023 (Tasa respuesta: 95,8%)</t>
   </si>
@@ -83,7 +83,7 @@
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,54%</t>
+    <t>0,45%</t>
   </si>
   <si>
     <t>0,05%</t>
@@ -98,19 +98,22 @@
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,5%</t>
+    <t>0,41%</t>
   </si>
   <si>
     <t>0,06%</t>
   </si>
   <si>
+    <t>0,38%</t>
+  </si>
+  <si>
     <t>Impuestos (IBI, los relacionados con vehículos, etc)</t>
   </si>
   <si>
     <t>0,09%</t>
   </si>
   <si>
-    <t>0,45%</t>
+    <t>0,44%</t>
   </si>
   <si>
     <t>0,28%</t>
@@ -137,16 +140,16 @@
     <t>99,73%</t>
   </si>
   <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,99%</t>
   </si>
   <si>
     <t>99,83%</t>
   </si>
   <si>
-    <t>99,55%</t>
+    <t>99,5%</t>
   </si>
   <si>
     <t>99,95%</t>
@@ -164,34 +167,37 @@
     <t>0,03%</t>
   </si>
   <si>
-    <t>0,22%</t>
+    <t>0,19%</t>
   </si>
   <si>
     <t>0,02%</t>
   </si>
   <si>
+    <t>0,11%</t>
+  </si>
+  <si>
     <t>99,9%</t>
   </si>
   <si>
     <t>99,97%</t>
   </si>
   <si>
-    <t>99,78%</t>
+    <t>99,81%</t>
   </si>
   <si>
     <t>99,98%</t>
   </si>
   <si>
+    <t>99,89%</t>
+  </si>
+  <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
     <t>0,12%</t>
   </si>
   <si>
-    <t>0,7%</t>
+    <t>0,6%</t>
   </si>
   <si>
     <t>0,31%</t>
@@ -203,7 +209,7 @@
     <t>99,88%</t>
   </si>
   <si>
-    <t>99,3%</t>
+    <t>99,4%</t>
   </si>
   <si>
     <t>99,94%</t>
@@ -218,13 +224,13 @@
     <t>0,16%</t>
   </si>
   <si>
-    <t>99,76%</t>
+    <t>99,77%</t>
   </si>
   <si>
     <t>99,96%</t>
   </si>
   <si>
-    <t>99,89%</t>
+    <t>99,86%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -639,7 +645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E89D5C1-9457-4BC7-8C48-70CB829FB862}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F821380A-F531-4F3B-AA04-F88333CD2DAB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -850,13 +856,13 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -880,13 +886,13 @@
         <v>696</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -901,13 +907,13 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -937,7 +943,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -958,7 +964,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="7">
         <v>633</v>
@@ -967,13 +973,13 @@
         <v>495197</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8" s="7">
         <v>1321</v>
@@ -982,13 +988,13 @@
         <v>771875</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M8" s="7">
         <v>1954</v>
@@ -997,13 +1003,13 @@
         <v>1267072</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1018,13 +1024,13 @@
         <v>495197</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H9" s="7">
         <v>1324</v>
@@ -1033,13 +1039,13 @@
         <v>773985</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M9" s="7">
         <v>1957</v>
@@ -1048,18 +1054,18 @@
         <v>1269182</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1092,7 +1098,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -1107,7 +1113,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1143,7 +1149,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -1158,13 +1164,13 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -1194,7 +1200,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -1209,13 +1215,13 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -1239,13 +1245,13 @@
         <v>729</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -1254,19 +1260,19 @@
         <v>729</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>1927</v>
@@ -1275,13 +1281,13 @@
         <v>2100955</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H14" s="7">
         <v>2804</v>
@@ -1290,13 +1296,13 @@
         <v>2141427</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M14" s="7">
         <v>4731</v>
@@ -1305,13 +1311,13 @@
         <v>4242382</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1326,13 +1332,13 @@
         <v>2100955</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H15" s="7">
         <v>2805</v>
@@ -1341,13 +1347,13 @@
         <v>2142156</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M15" s="7">
         <v>4732</v>
@@ -1356,18 +1362,18 @@
         <v>4243111</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1385,7 +1391,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1400,7 +1406,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1415,7 +1421,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1436,7 +1442,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -1445,13 +1451,13 @@
         <v>840</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -1466,13 +1472,13 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -1487,7 +1493,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1502,7 +1508,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -1517,29 +1523,29 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
@@ -1553,7 +1559,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -1568,13 +1574,13 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" s="7">
         <v>676</v>
@@ -1583,13 +1589,13 @@
         <v>670138</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H20" s="7">
         <v>983</v>
@@ -1598,13 +1604,13 @@
         <v>702399</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M20" s="7">
         <v>1659</v>
@@ -1613,13 +1619,13 @@
         <v>1372538</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1634,13 +1640,13 @@
         <v>670138</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H21" s="7">
         <v>984</v>
@@ -1649,13 +1655,13 @@
         <v>703239</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M21" s="7">
         <v>1660</v>
@@ -1664,13 +1670,13 @@
         <v>1373378</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1702,13 +1708,13 @@
         <v>637</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -1717,13 +1723,13 @@
         <v>637</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1753,13 +1759,13 @@
         <v>1617</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -1768,7 +1774,7 @@
         <v>1617</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>11</v>
@@ -1780,7 +1786,7 @@
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -1804,7 +1810,7 @@
         <v>696</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
@@ -1819,19 +1825,19 @@
         <v>696</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -1855,7 +1861,7 @@
         <v>729</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
@@ -1870,19 +1876,19 @@
         <v>729</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" s="7">
         <v>3236</v>
@@ -1891,13 +1897,13 @@
         <v>3266290</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H26" s="7">
         <v>5108</v>
@@ -1906,28 +1912,28 @@
         <v>3615702</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M26" s="7">
         <v>8344</v>
       </c>
       <c r="N26" s="7">
-        <v>6881992</v>
+        <v>6881991</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -1942,13 +1948,13 @@
         <v>3266290</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H27" s="7">
         <v>5113</v>
@@ -1957,33 +1963,33 @@
         <v>3619381</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M27" s="7">
         <v>8349</v>
       </c>
       <c r="N27" s="7">
-        <v>6885671</v>
+        <v>6885670</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P78DS4_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P78DS4_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C520BD3-E474-4C16-92B5-AAD208E39A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AFAD229-3538-44FF-8A88-5277E34AFE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{555E17BD-8281-4026-B8AC-4378ED8EF481}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DF1BEB31-3717-4653-9242-E95813365817}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -645,7 +645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F821380A-F531-4F3B-AA04-F88333CD2DAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A16D782-FB0B-4B33-AA0C-67EDB7E2CA42}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
